--- a/32-Enemy Levels 敌人等级.xlsx
+++ b/32-Enemy Levels 敌人等级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数计算" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
     <sheet name="插件指令" sheetId="3" r:id="rId3"/>
     <sheet name="插件参数（略）" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>公式：</t>
   </si>
@@ -26,6 +39,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>base</t>
     </r>
     <r>
@@ -41,6 +62,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>level</t>
     </r>
     <r>
@@ -56,6 +85,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>rate</t>
     </r>
     <r>
@@ -71,6 +108,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>flat</t>
     </r>
     <r>
@@ -131,6 +176,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设置敌人的</t>
     </r>
     <r>
@@ -162,6 +215,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">显示等级 / 隐藏等级
 </t>
     </r>
@@ -211,6 +271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>根据玩家的数据，设置敌人的</t>
     </r>
     <r>
@@ -247,6 +314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在上面设置的</t>
     </r>
     <r>
@@ -296,6 +370,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设置敌人的</t>
     </r>
     <r>
@@ -329,6 +411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人一旦达到x，外观就会变为filename中的形象。
 </t>
     </r>
@@ -354,6 +443,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>确定敌人等级的</t>
     </r>
     <r>
@@ -504,6 +601,73 @@
 &lt;JS Negative Level Variance: code&gt;</t>
   </si>
   <si>
+    <t>敌人外观相关笔记标签</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一旦敌人达到“x”级及以上，其图像将更改为使用的任何“filename”，直到达到下一个外观设置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等级数字
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>img/enemies/ 和/或 img/sv_enemies文件夹中敌人的文件名。
+插入多个这些笔记标签，以便在各个级别中为它们提供不同的图像设置。
+如果使用多个注释标签，则设置将从低到高排列，优先考虑达到的最高级别。</t>
+    </r>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
     <t>确定敌人等级的地图注释标签 JavaScript</t>
   </si>
   <si>
@@ -523,6 +687,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人：等级变化。（+1这种增减操作）
 </t>
     </r>
@@ -542,6 +713,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人：重置为原始等级
 </t>
     </r>
@@ -561,6 +739,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">敌人：设定等级
 </t>
     </r>
@@ -589,15 +774,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,92 +837,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,6 +857,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,7 +886,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +910,64 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,6 +983,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -837,7 +1030,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +1096,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,151 +1204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1235,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,39 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1148,148 +1341,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,16 +1523,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1354,52 +1547,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1496,7 +1689,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B12:M33" totalsRowShown="0">
-  <autoFilter ref="B12:M33"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B12:M33" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="12">
     <tableColumn id="1" name="levle"/>
     <tableColumn id="2" name="MaxHP" dataDxfId="0"/>
@@ -1820,27 +2013,27 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3038,17 +3231,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="41.625" customWidth="1"/>
-    <col min="3" max="3" width="53.75" customWidth="1"/>
+    <col min="3" max="3" width="86.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
@@ -3350,38 +3543,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:1">
+    <row r="43" spans="2:4">
+      <c r="B43" s="4"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" customFormat="1" ht="18.75" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" ht="61.5" spans="2:4">
       <c r="B45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" spans="2:4">
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="4"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D53" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3419,44 +3647,44 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3700,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
